--- a/lootplot.content.s0/_planning/ITEM_PLANNING.xlsx
+++ b/lootplot.content.s0/_planning/ITEM_PLANNING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_PROGRAMMING\_UMG\UMGClient_collapsed\builtin_mods\lootplot.content.s0\_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231A5E4E-A115-43BB-8591-95189B9E5759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5225E234-5DC7-4F2F-A397-83EF3E202177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{799B178B-B3FC-4B07-8F49-1B000DEB7225}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{799B178B-B3FC-4B07-8F49-1B000DEB7225}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Tier 1</t>
   </si>
@@ -319,13 +319,16 @@
   </si>
   <si>
     <t>Smelter: Converts target tools into their respective bars (Eg iron-sword -&gt; iron bar)</t>
+  </si>
+  <si>
+    <t>TODO: We need a proper crafting system / addon mod.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +346,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -374,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9627A1-4980-4071-8239-C5A039CD5A65}">
   <dimension ref="C3:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,7 +955,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
@@ -956,6 +967,9 @@
       </c>
       <c r="J8" t="s">
         <v>12</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="3:17" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -976,7 +990,7 @@
       <c r="E10" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="P10" t="e" vm="10">

--- a/lootplot.content.s0/_planning/ITEM_PLANNING.xlsx
+++ b/lootplot.content.s0/_planning/ITEM_PLANNING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_PROGRAMMING\_UMG\UMGClient_collapsed\builtin_mods\lootplot.content.s0\_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5225E234-5DC7-4F2F-A397-83EF3E202177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46297033-4989-49A1-89B5-9670C650CA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{799B178B-B3FC-4B07-8F49-1B000DEB7225}"/>
   </bookViews>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Tier 1</t>
   </si>
@@ -322,13 +322,16 @@
   </si>
   <si>
     <t>TODO: We need a proper crafting system / addon mod.</t>
+  </si>
+  <si>
+    <t>There should be a tool for EVERY mineral!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +361,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -379,13 +390,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9627A1-4980-4071-8239-C5A039CD5A65}">
-  <dimension ref="C3:Q15"/>
+  <dimension ref="C3:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,6 +1067,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="17" spans="6:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
